--- a/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
+++ b/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
@@ -4,15 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="22460" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="33040" windowHeight="20560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trestles" sheetId="1" r:id="rId1"/>
     <sheet name="Lonestar" sheetId="2" r:id="rId2"/>
+    <sheet name="BJ (Plain)" sheetId="3" r:id="rId3"/>
+    <sheet name="BJ (PD-SSH)" sheetId="4" r:id="rId4"/>
+    <sheet name="BJ (PD-GO)" sheetId="5" r:id="rId5"/>
+    <sheet name="Total" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="bj_pd_go_singleresource" localSheetId="4">'BJ (PD-GO)'!$A$1:$L$2</definedName>
+    <definedName name="bj_pd_singleresource" localSheetId="3">'BJ (PD-SSH)'!$A$1:$L$7</definedName>
+    <definedName name="bj_singleresource" localSheetId="2">'BJ (Plain)'!$A$1:$J$16</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="12" r:id="rId8"/>
+    <pivotCache cacheId="15" r:id="rId9"/>
+    <pivotCache cacheId="18" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,8 +34,65 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="bj-pd-go-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-pd-go-singleresource.txt" tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="bj-pd-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-pd-singleresource.txt" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="bj-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-singleresource.txt" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="66">
   <si>
     <t>Resource</t>
   </si>
@@ -69,13 +138,166 @@
   <si>
     <t>in min</t>
   </si>
+  <si>
+    <t>32 subjobs failed</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>#Nodes</t>
+  </si>
+  <si>
+    <t>#cores/node</t>
+  </si>
+  <si>
+    <t>#jobs</t>
+  </si>
+  <si>
+    <t>Queuing Time</t>
+  </si>
+  <si>
+    <t>BJ Runtime</t>
+  </si>
+  <si>
+    <t>Total Runtime</t>
+  </si>
+  <si>
+    <t>Coordination URL</t>
+  </si>
+  <si>
+    <t>LRMS URL</t>
+  </si>
+  <si>
+    <t>bigjob:bj-887db1c6-910d-11e1-b0d6-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379</t>
+  </si>
+  <si>
+    <t>pbs-ssh://luckow@trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-6eaa9054-9115-11e1-98f3-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-074da80c-911e-11e1-98f3-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-0e36ce2c-9124-11e1-8878-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-9f8569ac-9128-11e1-8878-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-7d5abb86-9135-11e1-9521-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-17ff803e-9138-11e1-9521-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-e3f22442-913a-11e1-9521-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-77e71942-9144-11e1-a3da-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-c9cb5f94-9148-11e1-a3da-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-c46c6c4e-914f-11e1-a3da-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-93be4550-9158-11e1-ba03-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-8ce94fb8-9162-11e1-ba03-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-42db75e2-916a-11e1-ba03-00259019a082:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-ff8c95b8-922d-11e1-8232-00259019a084:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>BJ Staging</t>
+  </si>
+  <si>
+    <t>SJ Staging</t>
+  </si>
+  <si>
+    <t>bigjob:bj-c40744a8-91dc-11e1-8493-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-af584dba-91df-11e1-8493-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-b24d2206-91e5-11e1-8493-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-5dc0a7ae-91ee-11e1-8366-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-8534006e-91f9-11e1-8366-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-30c630d4-920c-11e1-8366-f04da2004b3c:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>Net Runtime</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>Runtime + Staging</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Mittelwert - Net Runtime</t>
+  </si>
+  <si>
+    <t>Summe - Runtime + Staging</t>
+  </si>
+  <si>
+    <t>Mittelwert - Runtime + Staging</t>
+  </si>
+  <si>
+    <t>Summe - Staging</t>
+  </si>
+  <si>
+    <t>Mittelwert - Staging</t>
+  </si>
+  <si>
+    <t>Total Runtimes for 128 Cus (in min)</t>
+  </si>
+  <si>
+    <t>bigjob:bj-ee33f8e0-921b-11e1-bc46-00259009e720:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>No PD</t>
+  </si>
+  <si>
+    <t>PD (SSH)</t>
+  </si>
+  <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>PD (GO)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -159,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,8 +409,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,8 +439,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="35">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -224,6 +460,10 @@
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -237,12 +477,13 @@
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -251,165 +492,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -557,9 +639,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Runtime</c:v>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -673,11 +752,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2125226424"/>
-        <c:axId val="2128720072"/>
+        <c:axId val="2086321640"/>
+        <c:axId val="2086327592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125226424"/>
+        <c:axId val="2086321640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +815,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128720072"/>
+        <c:crossAx val="2086327592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128720072"/>
+        <c:axId val="2086327592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +872,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125226424"/>
+        <c:crossAx val="2086321640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -833,6 +912,288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="117"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="17"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No PD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PD (SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PD (GO)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>224.4480902777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.3214661929389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.915932583813334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No PD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PD (SSH)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PD (GO)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.29373737222215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.72038448255555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.40143604683334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2095727816"/>
+        <c:axId val="2095713032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095727816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095713032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2095713032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0">
+                    <a:latin typeface="Times"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t> (in minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800">
+                  <a:latin typeface="Times"/>
+                  <a:cs typeface="Times"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800">
+                <a:latin typeface="Times"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095727816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800">
+              <a:latin typeface="Times"/>
+              <a:cs typeface="Times"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -868,295 +1229,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41028.827149537035" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="180">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41029.391178703707" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="276">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:E182" sheet="Trestles"/>
+    <worksheetSource ref="A2:E278" sheet="Trestles"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Resource" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Trestles"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Cores" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="128"/>
     </cacheField>
     <cacheField name="Concurrent jobs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="32" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="128" count="6">
         <n v="2"/>
         <n v="4"/>
         <n v="8"/>
         <n v="16"/>
         <n v="32"/>
+        <n v="128"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Download" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="2375" count="151">
-        <n v="90"/>
-        <n v="96"/>
-        <n v="113"/>
-        <n v="119"/>
-        <n v="160"/>
-        <n v="130"/>
-        <n v="159"/>
-        <n v="149"/>
-        <n v="142"/>
-        <n v="132"/>
-        <n v="133"/>
-        <n v="126"/>
-        <n v="252"/>
-        <n v="228"/>
-        <n v="246"/>
-        <n v="257"/>
-        <n v="251"/>
-        <n v="219"/>
-        <n v="225"/>
-        <n v="254"/>
-        <n v="295"/>
-        <n v="239"/>
-        <n v="286"/>
-        <n v="221"/>
-        <n v="247"/>
-        <n v="289"/>
-        <n v="293"/>
-        <n v="268"/>
-        <n v="244"/>
-        <n v="236"/>
-        <n v="256"/>
-        <n v="258"/>
-        <n v="721"/>
-        <n v="577"/>
-        <n v="709"/>
-        <n v="641"/>
-        <n v="647"/>
-        <n v="707"/>
-        <n v="773"/>
-        <n v="777"/>
-        <n v="747"/>
-        <n v="700"/>
-        <n v="679"/>
-        <n v="669"/>
-        <n v="779"/>
-        <n v="729"/>
-        <n v="783"/>
-        <n v="539"/>
-        <n v="426"/>
-        <n v="536"/>
-        <n v="464"/>
-        <n v="475"/>
-        <n v="533"/>
-        <n v="527"/>
-        <n v="446"/>
-        <n v="434"/>
-        <n v="445"/>
-        <n v="467"/>
-        <n v="505"/>
-        <n v="517"/>
-        <n v="535"/>
-        <n v="476"/>
-        <n v="531"/>
-        <n v="500"/>
-        <n v="436"/>
-        <n v="448"/>
-        <n v="459"/>
-        <n v="461"/>
-        <n v="516"/>
-        <n v="490"/>
-        <n v="450"/>
-        <n v="482"/>
-        <n v="456"/>
-        <n v="2363"/>
-        <n v="2222"/>
-        <n v="2351"/>
-        <n v="2229"/>
-        <n v="2202"/>
-        <n v="2362"/>
-        <n v="2244"/>
-        <n v="2337"/>
-        <n v="2357"/>
-        <n v="2344"/>
-        <n v="2339"/>
-        <n v="2319"/>
-        <n v="2356"/>
-        <n v="2373"/>
-        <n v="2364"/>
-        <n v="2206"/>
-        <n v="2361"/>
-        <n v="2130"/>
-        <n v="2327"/>
-        <n v="2210"/>
-        <n v="2375"/>
-        <n v="2207"/>
-        <n v="2360"/>
-        <n v="2348"/>
-        <n v="2368"/>
-        <n v="2353"/>
-        <n v="992"/>
-        <n v="1023"/>
-        <n v="1184"/>
-        <n v="970"/>
-        <n v="1068"/>
-        <n v="1002"/>
-        <n v="1177"/>
-        <n v="1188"/>
-        <n v="920"/>
-        <n v="986"/>
-        <n v="1195"/>
-        <n v="1076"/>
-        <n v="1186"/>
-        <n v="1191"/>
-        <n v="1112"/>
-        <n v="1190"/>
-        <n v="1163"/>
-        <n v="1181"/>
-        <n v="1122"/>
-        <n v="1196"/>
-        <n v="1004"/>
-        <n v="1126"/>
-        <n v="1178"/>
-        <n v="1165"/>
-        <n v="1171"/>
-        <n v="1170"/>
-        <n v="1183"/>
-        <n v="999"/>
-        <n v="1176"/>
-        <n v="1162"/>
-        <n v="1105"/>
-        <n v="964"/>
-        <n v="1164"/>
-        <n v="959"/>
-        <n v="1045"/>
-        <n v="1055"/>
-        <n v="954"/>
-        <n v="1094"/>
-        <n v="1160"/>
-        <n v="1159"/>
-        <n v="1119"/>
-        <n v="972"/>
-        <n v="1093"/>
-        <n v="1118"/>
-        <n v="1167"/>
-        <n v="1096"/>
-        <n v="1107"/>
-        <n v="969"/>
-        <n v="1172"/>
-        <n v="1033"/>
-        <n v="1115"/>
-        <n v="944"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="13634"/>
+    </cacheField>
+    <cacheField name="Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="261" maxValue="975"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41029.411887499999" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="15">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K16" sheet="BJ (Plain)"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Run" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="BJ" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="#Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="128"/>
+    </cacheField>
+    <cacheField name="#cores/node" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="#jobs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="128" count="7">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+        <n v="32"/>
+        <n v="128"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="553" maxValue="975" count="108">
-        <n v="835"/>
-        <n v="836"/>
-        <n v="834"/>
-        <n v="869"/>
-        <n v="841"/>
-        <n v="872"/>
-        <n v="839"/>
-        <n v="862"/>
-        <n v="850"/>
-        <n v="848"/>
-        <n v="854"/>
-        <n v="785"/>
-        <n v="787"/>
-        <n v="807"/>
-        <n v="819"/>
-        <n v="798"/>
-        <n v="828"/>
-        <n v="802"/>
-        <n v="844"/>
-        <n v="847"/>
-        <n v="820"/>
-        <n v="816"/>
-        <n v="801"/>
-        <n v="799"/>
-        <n v="790"/>
-        <n v="806"/>
-        <n v="795"/>
-        <n v="811"/>
-        <n v="822"/>
-        <n v="842"/>
-        <n v="833"/>
-        <n v="827"/>
-        <n v="864"/>
-        <n v="865"/>
-        <n v="870"/>
-        <n v="861"/>
-        <n v="855"/>
-        <n v="868"/>
-        <n v="849"/>
-        <n v="830"/>
-        <n v="803"/>
-        <n v="845"/>
-        <n v="856"/>
-        <n v="859"/>
-        <n v="858"/>
-        <n v="857"/>
-        <n v="823"/>
-        <n v="553"/>
-        <n v="878"/>
-        <n v="796"/>
-        <n v="875"/>
-        <n v="814"/>
-        <n v="804"/>
-        <n v="837"/>
-        <n v="813"/>
-        <n v="898"/>
-        <n v="924"/>
-        <n v="895"/>
-        <n v="946"/>
-        <n v="944"/>
-        <n v="873"/>
-        <n v="917"/>
-        <n v="886"/>
-        <n v="888"/>
-        <n v="910"/>
-        <n v="874"/>
-        <n v="877"/>
-        <n v="956"/>
-        <n v="876"/>
-        <n v="921"/>
-        <n v="951"/>
-        <n v="937"/>
-        <n v="906"/>
-        <n v="890"/>
-        <n v="897"/>
-        <n v="891"/>
-        <n v="894"/>
-        <n v="927"/>
-        <n v="926"/>
-        <n v="952"/>
-        <n v="918"/>
-        <n v="929"/>
-        <n v="889"/>
-        <n v="942"/>
-        <n v="943"/>
-        <n v="881"/>
-        <n v="934"/>
-        <n v="882"/>
-        <n v="887"/>
-        <n v="880"/>
-        <n v="953"/>
-        <n v="908"/>
-        <n v="860"/>
-        <n v="939"/>
-        <n v="914"/>
-        <n v="871"/>
-        <n v="901"/>
-        <n v="904"/>
-        <n v="965"/>
-        <n v="940"/>
-        <n v="892"/>
-        <n v="975"/>
-        <n v="930"/>
-        <n v="896"/>
-        <n v="945"/>
-        <n v="900"/>
-        <n v="935"/>
-        <n v="961"/>
+    <cacheField name="Queuing Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="37.059126853899997" maxValue="22768.135295200002"/>
+    </cacheField>
+    <cacheField name="BJ Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1116.8879890400001" maxValue="37332.644954199997"/>
+    </cacheField>
+    <cacheField name="Total Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1117.33498502" maxValue="37333.205501999997"/>
+    </cacheField>
+    <cacheField name="Coordination URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LRMS URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Net Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="933.88354111000035" maxValue="14564.509658999996"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41029.414695254629" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="6">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O7" sheet="BJ (PD-SSH)"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Run" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="BJ" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="#Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="128"/>
+    </cacheField>
+    <cacheField name="#cores/node" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="#jobs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="128" count="2">
+        <n v="1"/>
+        <n v="128"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="Queuing Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="392.29308795899999" maxValue="6588.2692558799999"/>
+    </cacheField>
+    <cacheField name="BJ Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1248.8864119100001" maxValue="8013.6574549699999"/>
+    </cacheField>
+    <cacheField name="Total Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1251.0189650100001" maxValue="8015.7853438900001"/>
+    </cacheField>
+    <cacheField name="Coordination URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LRMS URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="205.12900877000001" maxValue="247.03961205499999"/>
+    </cacheField>
+    <cacheField name="SJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19.426205158199998" maxValue="21.759326951599999"/>
+    </cacheField>
+    <cacheField name="Net Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="818.97427415000016" maxValue="1441.3552739600004"/>
+    </cacheField>
+    <cacheField name="Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="224.5552139282" maxValue="2992.4250838787998"/>
+    </cacheField>
+    <cacheField name="Runtime + Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1043.5294880782001" maxValue="4355.7074382228002"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41029.472241782409" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O2" sheet="BJ (PD-GO)"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Run" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="BJ" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="#Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="#cores/node" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="#jobs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Queuing Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7925.22349906" maxValue="7925.22349906"/>
+    </cacheField>
+    <cacheField name="BJ Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8789.3096618700001" maxValue="8789.3096618700001"/>
+    </cacheField>
+    <cacheField name="Total Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8791.9559440600005" maxValue="8791.9559440600005"/>
+    </cacheField>
+    <cacheField name="Coordination URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LRMS URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="159.65850997000001" maxValue="159.65850997000001"/>
+    </cacheField>
+    <cacheField name="SJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.297445058799999" maxValue="15.297445058799999"/>
+    </cacheField>
+    <cacheField name="Net Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="864.08616281000013" maxValue="864.08616281000013"/>
+    </cacheField>
+    <cacheField name="Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="174.95595502880002" maxValue="174.95595502880002"/>
+    </cacheField>
+    <cacheField name="Runtime + Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1039.0421178388001" maxValue="1039.0421178388001"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1168,1565 +1483,2295 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="180">
-  <r>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="276">
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="90"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="96"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="113"/>
+    <n v="836"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="119"/>
+    <n v="834"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="160"/>
+    <n v="869"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="130"/>
+    <n v="841"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="159"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="149"/>
+    <n v="839"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="142"/>
+    <n v="862"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="132"/>
+    <n v="850"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="10"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="133"/>
+    <n v="848"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="1"/>
-    <x v="11"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="126"/>
+    <n v="854"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="12"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="252"/>
+    <n v="785"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="13"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="228"/>
+    <n v="787"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="14"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="246"/>
+    <n v="807"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="15"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="257"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="16"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="251"/>
+    <n v="798"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="17"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="219"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="18"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="225"/>
+    <n v="828"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="19"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="254"/>
+    <n v="802"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="20"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="295"/>
+    <n v="841"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="21"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="239"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="22"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="286"/>
+    <n v="847"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="23"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="221"/>
+    <n v="820"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="24"/>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="247"/>
+    <n v="816"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="25"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="289"/>
+    <n v="801"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="25"/>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="289"/>
+    <n v="799"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="26"/>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="293"/>
+    <n v="790"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="27"/>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="268"/>
+    <n v="806"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="28"/>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="244"/>
+    <n v="795"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="29"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="236"/>
+    <n v="785"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="19"/>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="254"/>
+    <n v="811"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="30"/>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="256"/>
+    <n v="822"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="31"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="258"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="15"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="257"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="2"/>
-    <x v="23"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="221"/>
+    <n v="827"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="32"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="721"/>
+    <n v="864"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="33"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="577"/>
+    <n v="865"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="34"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="709"/>
+    <n v="834"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="35"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="641"/>
+    <n v="870"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="36"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="647"/>
+    <n v="861"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="37"/>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="707"/>
+    <n v="855"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="38"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="773"/>
+    <n v="820"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="39"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="777"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="40"/>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="747"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="41"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="700"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="42"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="679"/>
+    <n v="868"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="43"/>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="669"/>
+    <n v="849"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="44"/>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="779"/>
+    <n v="830"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="45"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="729"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="38"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="773"/>
+    <n v="803"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="46"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="783"/>
+    <n v="845"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="47"/>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="539"/>
+    <n v="864"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="48"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="426"/>
+    <n v="870"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="49"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="536"/>
+    <n v="862"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="50"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="464"/>
+    <n v="856"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="51"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="475"/>
+    <n v="845"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="52"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="533"/>
+    <n v="859"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="53"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="527"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="54"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="446"/>
+    <n v="859"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="55"/>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="434"/>
+    <n v="858"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="56"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="445"/>
+    <n v="857"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="57"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="467"/>
+    <n v="848"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="58"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="505"/>
+    <n v="823"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="59"/>
-    <x v="47"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="517"/>
+    <n v="553"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="60"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="535"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="61"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="476"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="62"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="531"/>
+    <n v="859"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="63"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="500"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="51"/>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="475"/>
+    <n v="827"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="53"/>
-    <x v="49"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="527"/>
+    <n v="796"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="64"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="436"/>
+    <n v="848"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="65"/>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="448"/>
+    <n v="859"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="66"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="459"/>
+    <n v="875"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="53"/>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="527"/>
+    <n v="801"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="67"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="461"/>
+    <n v="814"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="54"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="446"/>
+    <n v="835"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="68"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="516"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="69"/>
-    <x v="52"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="490"/>
+    <n v="804"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="70"/>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="450"/>
+    <n v="861"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="71"/>
-    <x v="53"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="482"/>
+    <n v="837"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="64"/>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="436"/>
+    <n v="842"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="61"/>
-    <x v="54"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="476"/>
+    <n v="813"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="16"/>
     <x v="3"/>
-    <x v="72"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="456"/>
+    <n v="841"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="73"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2363"/>
+    <n v="898"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="74"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2222"/>
+    <n v="924"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="75"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2351"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="76"/>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2229"/>
+    <n v="946"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="77"/>
-    <x v="59"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2202"/>
+    <n v="944"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="78"/>
-    <x v="60"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2362"/>
+    <n v="873"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="79"/>
-    <x v="61"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2244"/>
+    <n v="917"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="80"/>
-    <x v="55"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2337"/>
+    <n v="898"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="81"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2357"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="82"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2344"/>
+    <n v="886"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="83"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2339"/>
+    <n v="888"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="84"/>
-    <x v="64"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2319"/>
+    <n v="910"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="85"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2356"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="86"/>
-    <x v="65"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2373"/>
+    <n v="874"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="87"/>
-    <x v="66"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2364"/>
+    <n v="877"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="88"/>
-    <x v="67"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2206"/>
+    <n v="956"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="89"/>
-    <x v="68"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2361"/>
+    <n v="876"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="86"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2373"/>
+    <n v="844"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="90"/>
-    <x v="58"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2130"/>
+    <n v="946"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="91"/>
-    <x v="69"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2327"/>
+    <n v="921"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="73"/>
-    <x v="65"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2363"/>
+    <n v="874"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="92"/>
-    <x v="70"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2210"/>
+    <n v="951"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="93"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2375"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="94"/>
-    <x v="71"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2207"/>
+    <n v="937"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="84"/>
-    <x v="72"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2319"/>
+    <n v="906"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="91"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2327"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="95"/>
-    <x v="74"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2360"/>
+    <n v="897"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="75"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2351"/>
+    <n v="888"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="96"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2348"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="89"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2361"/>
+    <n v="862"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="97"/>
-    <x v="74"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2368"/>
+    <n v="897"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="98"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="2353"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="99"/>
-    <x v="77"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="992"/>
+    <n v="927"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="100"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1023"/>
+    <n v="926"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="101"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1184"/>
+    <n v="868"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="102"/>
-    <x v="71"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="970"/>
+    <n v="937"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="103"/>
-    <x v="79"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1068"/>
+    <n v="952"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="104"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1002"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="105"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1177"/>
+    <n v="869"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="99"/>
-    <x v="81"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="992"/>
+    <n v="929"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="106"/>
-    <x v="82"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1188"/>
+    <n v="889"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="107"/>
-    <x v="83"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="920"/>
+    <n v="942"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="108"/>
-    <x v="61"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="986"/>
+    <n v="917"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="109"/>
-    <x v="57"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1195"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="110"/>
-    <x v="84"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1076"/>
+    <n v="943"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="111"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1186"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="112"/>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1191"/>
+    <n v="870"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="113"/>
-    <x v="86"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1112"/>
+    <n v="934"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="114"/>
-    <x v="87"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1190"/>
+    <n v="882"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="115"/>
-    <x v="88"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1163"/>
+    <n v="887"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="116"/>
-    <x v="62"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1181"/>
+    <n v="886"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="117"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1122"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="112"/>
-    <x v="89"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1191"/>
+    <n v="880"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="118"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1196"/>
+    <n v="841"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="119"/>
-    <x v="90"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1004"/>
+    <n v="953"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="120"/>
-    <x v="56"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1126"/>
+    <n v="924"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="121"/>
-    <x v="73"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1178"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="122"/>
-    <x v="91"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1165"/>
+    <n v="908"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="123"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1171"/>
+    <n v="888"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="109"/>
-    <x v="92"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1195"/>
+    <n v="860"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="124"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1170"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="125"/>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1183"/>
+    <n v="865"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="126"/>
-    <x v="93"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="999"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="113"/>
-    <x v="94"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1112"/>
+    <n v="914"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="127"/>
-    <x v="95"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1176"/>
+    <n v="871"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="128"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1162"/>
+    <n v="901"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="129"/>
-    <x v="97"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1105"/>
+    <n v="904"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="130"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="964"/>
+    <n v="965"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="122"/>
-    <x v="64"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1165"/>
+    <n v="910"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="131"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1164"/>
+    <n v="872"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="117"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1122"/>
+    <n v="926"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="132"/>
-    <x v="99"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="959"/>
+    <n v="940"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="115"/>
-    <x v="48"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1163"/>
+    <n v="878"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="133"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1045"/>
+    <n v="892"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="134"/>
-    <x v="84"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1055"/>
+    <n v="943"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="124"/>
-    <x v="75"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1170"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="135"/>
-    <x v="101"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="954"/>
+    <n v="975"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="136"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1094"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="137"/>
-    <x v="103"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1160"/>
+    <n v="896"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="138"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1159"/>
+    <n v="892"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="129"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1105"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="139"/>
-    <x v="80"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1119"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="140"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="972"/>
+    <n v="945"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="141"/>
-    <x v="97"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1093"/>
+    <n v="904"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="142"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1118"/>
+    <n v="901"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="143"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1167"/>
+    <n v="892"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="144"/>
-    <x v="94"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1096"/>
+    <n v="914"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="145"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1107"/>
+    <n v="892"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="146"/>
-    <x v="84"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="969"/>
+    <n v="943"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="147"/>
-    <x v="105"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1172"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="148"/>
-    <x v="78"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1033"/>
+    <n v="926"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="123"/>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1171"/>
+    <n v="868"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="149"/>
-    <x v="88"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1115"/>
+    <n v="887"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="133"/>
-    <x v="86"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1045"/>
+    <n v="934"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="144"/>
-    <x v="106"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1096"/>
+    <n v="935"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
     <n v="32"/>
     <x v="4"/>
-    <x v="150"/>
-    <x v="107"/>
+    <n v="944"/>
+    <n v="961"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13566"/>
+    <n v="922"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13487"/>
+    <n v="910"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13543"/>
+    <n v="907"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13272"/>
+    <n v="926"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13455"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13444"/>
+    <n v="941"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13359"/>
+    <n v="932"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13578"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13007"/>
+    <n v="907"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13562"/>
+    <n v="905"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13498"/>
+    <n v="938"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13424"/>
+    <n v="938"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13570"/>
+    <n v="894"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13552"/>
+    <n v="906"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13548"/>
+    <n v="917"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="12925"/>
+    <n v="919"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13462"/>
+    <n v="958"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13410"/>
+    <n v="925"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13627"/>
+    <n v="901"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13629"/>
+    <n v="911"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13584"/>
+    <n v="925"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13468"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13556"/>
+    <n v="942"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13566"/>
+    <n v="952"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13193"/>
+    <n v="905"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13588"/>
+    <n v="901"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13424"/>
+    <n v="929"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13578"/>
+    <n v="922"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13471"/>
+    <n v="938"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13588"/>
+    <n v="913"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13625"/>
+    <n v="908"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13489"/>
+    <n v="932"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13459"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13378"/>
+    <n v="937"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13355"/>
+    <n v="936"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13552"/>
+    <n v="920"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="12936"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13497"/>
+    <n v="948"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13591"/>
+    <n v="881"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13575"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13395"/>
+    <n v="934"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13583"/>
+    <n v="921"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13572"/>
+    <n v="915"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13582"/>
+    <n v="874"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13579"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13339"/>
+    <n v="970"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13581"/>
+    <n v="862"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13513"/>
+    <n v="904"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13584"/>
+    <n v="911"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13557"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13475"/>
+    <n v="907"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13555"/>
+    <n v="932"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13579"/>
+    <n v="923"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13555"/>
+    <n v="919"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13466"/>
+    <n v="941"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13103"/>
+    <n v="942"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13179"/>
+    <n v="917"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13559"/>
+    <n v="902"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13588"/>
+    <n v="926"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13560"/>
+    <n v="902"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13406"/>
+    <n v="910"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13573"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13629"/>
+    <n v="893"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13419"/>
+    <n v="948"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13634"/>
+    <n v="892"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="12916"/>
+    <n v="925"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13497"/>
+    <n v="916"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13572"/>
+    <n v="891"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13588"/>
+    <n v="866"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13430"/>
+    <n v="925"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13622"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13416"/>
+    <n v="943"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13417"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13566"/>
+    <n v="889"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13365"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13446"/>
+    <n v="939"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13280"/>
+    <n v="945"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13572"/>
+    <n v="897"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13551"/>
+    <n v="921"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13585"/>
+    <n v="899"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13026"/>
+    <n v="921"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13472"/>
+    <n v="920"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13603"/>
+    <n v="898"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13469"/>
+    <n v="943"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13625"/>
+    <n v="261"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13589"/>
+    <n v="912"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13535"/>
+    <n v="918"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13587"/>
+    <n v="873"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13405"/>
+    <n v="903"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="12901"/>
+    <n v="960"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13494"/>
+    <n v="924"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13530"/>
+    <n v="901"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13220"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13436"/>
+    <n v="915"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13576"/>
+    <n v="893"/>
+  </r>
+  <r>
+    <s v="Trestles"/>
+    <n v="128"/>
+    <x v="5"/>
+    <n v="13574"/>
+    <n v="886"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-887db1c6-910d-11e1-b0d6-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="954.949452877"/>
+    <n v="1904.65635991"/>
+    <n v="1905.0930659799999"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="949.70690703299999"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-6eaa9054-9115-11e1-98f3-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="2756.7323818199998"/>
+    <n v="3690.6159229300001"/>
+    <n v="3691.0615439399999"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="933.88354111000035"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-074da80c-911e-11e1-98f3-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="763.49348592800004"/>
+    <n v="1723.08778095"/>
+    <n v="1723.5316910700001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="959.59429502199998"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-0e36ce2c-9124-11e1-8878-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="926.05387902300004"/>
+    <n v="1960.3043100800001"/>
+    <n v="1960.7434251300001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1034.250431057"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-9f8569ac-9128-11e1-8878-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="2"/>
+    <n v="3333.1491689700001"/>
+    <n v="4343.1737480199999"/>
+    <n v="4343.7153339400002"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1010.0245790499998"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-7d5abb86-9135-11e1-9521-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="37.059126853899997"/>
+    <n v="1116.8879890400001"/>
+    <n v="1117.33498502"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1079.8288621861002"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-17ff803e-9138-11e1-9521-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="57.486021995500003"/>
+    <n v="1199.46437597"/>
+    <n v="1200.04477"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1141.9783539744999"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-e3f22442-913a-11e1-9521-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="3"/>
+    <n v="2489.0308990499998"/>
+    <n v="3594.5141370299998"/>
+    <n v="3595.0533909800001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1105.48323798"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-77e71942-9144-11e1-a3da-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="4"/>
+    <n v="215.984438896"/>
+    <n v="1851.46343207"/>
+    <n v="1851.9019539400001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1635.4789931739999"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-c9cb5f94-9148-11e1-a3da-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="4"/>
+    <n v="1587.50521493"/>
+    <n v="2996.0286328799998"/>
+    <n v="2996.4767038800001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1408.5234179499998"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-c46c6c4e-914f-11e1-a3da-00259019a082:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="4"/>
+    <n v="1925.84539294"/>
+    <n v="3292.3419399300001"/>
+    <n v="3292.7900688599998"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="1366.4965469900001"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-93be4550-9158-11e1-ba03-00259019a082:trestles.sdsc.edu"/>
+    <n v="32"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="1001.75782609"/>
+    <n v="4281.8598151200003"/>
+    <n v="4282.3115339300002"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="3280.1019890300004"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-8ce94fb8-9162-11e1-ba03-00259019a082:trestles.sdsc.edu"/>
+    <n v="32"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="1210.1403880099999"/>
+    <n v="3310.2213969200002"/>
+    <n v="3310.6605689500002"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="2100.0810089100005"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-42db75e2-916a-11e1-ba03-00259019a082:trestles.sdsc.edu"/>
+    <n v="32"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="2226.8310780500001"/>
+    <n v="4308.7829060599997"/>
+    <n v="4309.21431708"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="2081.9518280099996"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-ff8c95b8-922d-11e1-8232-00259019a084:trestles.sdsc.edu"/>
+    <n v="128"/>
+    <n v="16"/>
+    <x v="6"/>
+    <n v="22768.135295200002"/>
+    <n v="37332.644954199997"/>
+    <n v="37333.205501999997"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="14564.509658999996"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-c40744a8-91dc-11e1-8493-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="392.29308795899999"/>
+    <n v="1248.8864119100001"/>
+    <n v="1251.0189650100001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="208.94590902300001"/>
+    <n v="19.812896966899999"/>
+    <n v="856.59332395100012"/>
+    <n v="228.7588059899"/>
+    <n v="1085.3521299409001"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-af584dba-91df-11e1-8493-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="1758.32392383"/>
+    <n v="2577.2981979800002"/>
+    <n v="2579.3222539399999"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="205.12900877000001"/>
+    <n v="19.426205158199998"/>
+    <n v="818.97427415000016"/>
+    <n v="224.5552139282"/>
+    <n v="1043.5294880782001"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-b24d2206-91e5-11e1-8493-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="2711.5011251000001"/>
+    <n v="3575.2306690199998"/>
+    <n v="3577.3629119399998"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="247.03961205499999"/>
+    <n v="19.903964996300001"/>
+    <n v="863.72954391999974"/>
+    <n v="266.9435770513"/>
+    <n v="1130.6731209712998"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-5dc0a7ae-91ee-11e1-8366-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="128"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="3344.0852730299998"/>
+    <n v="4785.4405469900003"/>
+    <n v="4787.5795450200003"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="235.05078005799999"/>
+    <n v="20.932042064099999"/>
+    <n v="1441.3552739600004"/>
+    <n v="2914.3521642627998"/>
+    <n v="4355.7074382228002"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-8534006e-91f9-11e1-8366-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="128"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="6588.2692558799999"/>
+    <n v="8013.6574549699999"/>
+    <n v="8015.7853438900001"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="205.92547678899999"/>
+    <n v="20.196571795299999"/>
+    <n v="1425.3881990899999"/>
+    <n v="2791.0866665874"/>
+    <n v="4216.4748656774"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-30c630d4-920c-11e1-8366-f04da2004b3c:trestles.sdsc.edu"/>
+    <n v="128"/>
+    <n v="16"/>
+    <x v="1"/>
+    <n v="3045.9475521999998"/>
+    <n v="3908.8732860099999"/>
+    <n v="3911.3552231799999"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="207.23123407400001"/>
+    <n v="21.759326951599999"/>
+    <n v="862.92573381000011"/>
+    <n v="2992.4250838787998"/>
+    <n v="3855.3508176887999"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-ee33f8e0-921b-11e1-bc46-00259009e720:trestles.sdsc.edu"/>
+    <n v="16"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="7925.22349906"/>
+    <n v="8789.3096618700001"/>
+    <n v="8791.9559440600005"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="159.65850997000001"/>
+    <n v="15.297445058799999"/>
+    <n v="864.08616281000013"/>
+    <n v="174.95595502880002"/>
+    <n v="1039.0421178388001"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="H2:L9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="H2:L10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="152">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="29"/>
-        <item x="21"/>
-        <item x="28"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="20"/>
-        <item x="48"/>
-        <item x="55"/>
-        <item x="64"/>
-        <item x="56"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="50"/>
-        <item x="57"/>
-        <item x="51"/>
-        <item x="61"/>
-        <item x="71"/>
-        <item x="69"/>
-        <item x="63"/>
-        <item x="58"/>
-        <item x="68"/>
-        <item x="59"/>
-        <item x="53"/>
-        <item x="62"/>
-        <item x="52"/>
-        <item x="60"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="37"/>
-        <item x="34"/>
-        <item x="32"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="107"/>
-        <item x="150"/>
-        <item x="135"/>
-        <item x="132"/>
-        <item x="130"/>
-        <item x="146"/>
-        <item x="102"/>
-        <item x="140"/>
-        <item x="108"/>
-        <item x="99"/>
-        <item x="126"/>
-        <item x="104"/>
-        <item x="119"/>
-        <item x="100"/>
-        <item x="148"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="103"/>
-        <item x="110"/>
-        <item x="141"/>
-        <item x="136"/>
-        <item x="144"/>
-        <item x="129"/>
-        <item x="145"/>
-        <item x="113"/>
-        <item x="149"/>
-        <item x="142"/>
-        <item x="139"/>
-        <item x="117"/>
-        <item x="120"/>
-        <item x="138"/>
-        <item x="137"/>
-        <item x="128"/>
-        <item x="115"/>
-        <item x="131"/>
-        <item x="122"/>
-        <item x="143"/>
-        <item x="124"/>
-        <item x="123"/>
-        <item x="147"/>
-        <item x="127"/>
-        <item x="105"/>
-        <item x="121"/>
-        <item x="116"/>
-        <item x="125"/>
-        <item x="101"/>
-        <item x="111"/>
-        <item x="106"/>
-        <item x="114"/>
-        <item x="112"/>
-        <item x="109"/>
-        <item x="118"/>
-        <item x="90"/>
-        <item x="77"/>
-        <item x="88"/>
-        <item x="94"/>
-        <item x="92"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item x="79"/>
-        <item x="84"/>
-        <item x="91"/>
-        <item x="80"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="96"/>
-        <item x="75"/>
-        <item x="98"/>
-        <item x="85"/>
-        <item x="81"/>
-        <item x="95"/>
-        <item x="89"/>
-        <item x="78"/>
-        <item x="73"/>
-        <item x="87"/>
-        <item x="97"/>
-        <item x="86"/>
-        <item x="93"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="109">
-        <item x="47"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="17"/>
-        <item x="40"/>
-        <item x="52"/>
-        <item x="25"/>
-        <item x="13"/>
-        <item x="27"/>
-        <item x="54"/>
-        <item x="51"/>
-        <item x="21"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="31"/>
-        <item x="16"/>
-        <item x="39"/>
-        <item x="30"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="53"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="29"/>
-        <item x="18"/>
-        <item x="41"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="38"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="92"/>
-        <item x="35"/>
-        <item x="7"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="37"/>
-        <item x="3"/>
-        <item x="34"/>
-        <item x="95"/>
-        <item x="5"/>
-        <item x="60"/>
-        <item x="65"/>
-        <item x="50"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="48"/>
-        <item x="89"/>
-        <item x="85"/>
-        <item x="87"/>
-        <item x="62"/>
-        <item x="88"/>
-        <item x="63"/>
-        <item x="82"/>
-        <item x="73"/>
-        <item x="75"/>
-        <item x="100"/>
-        <item x="76"/>
-        <item x="57"/>
-        <item x="103"/>
-        <item x="74"/>
-        <item x="55"/>
-        <item x="105"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="72"/>
-        <item x="91"/>
-        <item x="64"/>
-        <item x="94"/>
-        <item x="61"/>
-        <item x="80"/>
-        <item x="69"/>
-        <item x="56"/>
-        <item x="78"/>
-        <item x="77"/>
-        <item x="81"/>
-        <item x="102"/>
-        <item x="86"/>
-        <item x="106"/>
-        <item x="71"/>
-        <item x="93"/>
-        <item x="99"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="59"/>
-        <item x="104"/>
-        <item x="58"/>
-        <item x="70"/>
-        <item x="79"/>
-        <item x="90"/>
-        <item x="67"/>
-        <item x="107"/>
-        <item x="98"/>
-        <item x="101"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -2741,6 +3786,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2766,11 +3814,11 @@
   <dataFields count="4">
     <dataField name="Mittelwert - Download" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Mittelwert - Runtime" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="STABW - Download" fld="3" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="STABW - Runtime" fld="4" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="STABW - Download" fld="3" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="STABW - Runtime" fld="4" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2780,7 +3828,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2790,7 +3838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -2807,6 +3855,213 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="M2:N11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Mittelwert - Net Runtime" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="Q2:S6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Mittelwert - Staging" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Mittelwert - Runtime + Staging" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="Q2:S5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Summe - Staging" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Summe - Runtime + Staging" fld="14" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3131,10 +4386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L182"/>
+  <dimension ref="A2:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3377,20 +4632,20 @@
       <c r="E9">
         <v>872</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="5">
-        <v>995.18888888888887</v>
-      </c>
-      <c r="J9" s="5">
-        <v>871.52777777777783</v>
+      <c r="H9" s="6">
+        <v>128</v>
+      </c>
+      <c r="I9" s="9">
+        <v>13466.885416666666</v>
+      </c>
+      <c r="J9" s="9">
+        <v>910.65625</v>
       </c>
       <c r="K9" s="8">
-        <v>705.49335951714022</v>
+        <v>171.00913301501771</v>
       </c>
       <c r="L9" s="8">
-        <v>49.846516445364706</v>
+        <v>70.395249260309129</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3408,6 +4663,21 @@
       </c>
       <c r="E10">
         <v>839</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5333.170289855072</v>
+      </c>
+      <c r="J10" s="5">
+        <v>885.13768115942025</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5978.8195834040607</v>
+      </c>
+      <c r="L10" s="8">
+        <v>60.644561117620967</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3743,6 +5013,22 @@
       <c r="H23" s="10">
         <v>128</v>
       </c>
+      <c r="I23" s="9">
+        <f>I9/60</f>
+        <v>224.44809027777777</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" ref="J23:L23" si="5">J9/60</f>
+        <v>15.177604166666667</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="5"/>
+        <v>2.8501522169169617</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="5"/>
+        <v>1.1732541543384856</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
@@ -6345,7 +7631,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +7648,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -6379,7 +7665,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -6396,7 +7682,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -6413,7 +7699,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6430,7 +7716,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -6445,6 +7731,1641 @@
       </c>
       <c r="E182">
         <v>961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>128</v>
+      </c>
+      <c r="C183">
+        <v>128</v>
+      </c>
+      <c r="D183">
+        <v>13566</v>
+      </c>
+      <c r="E183">
+        <v>922</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184">
+        <v>128</v>
+      </c>
+      <c r="C184">
+        <v>128</v>
+      </c>
+      <c r="D184">
+        <v>13487</v>
+      </c>
+      <c r="E184">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185">
+        <v>128</v>
+      </c>
+      <c r="C185">
+        <v>128</v>
+      </c>
+      <c r="D185">
+        <v>13543</v>
+      </c>
+      <c r="E185">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186">
+        <v>128</v>
+      </c>
+      <c r="C186">
+        <v>128</v>
+      </c>
+      <c r="D186">
+        <v>13272</v>
+      </c>
+      <c r="E186">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>128</v>
+      </c>
+      <c r="C187">
+        <v>128</v>
+      </c>
+      <c r="D187">
+        <v>13455</v>
+      </c>
+      <c r="E187">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>128</v>
+      </c>
+      <c r="C188">
+        <v>128</v>
+      </c>
+      <c r="D188">
+        <v>13444</v>
+      </c>
+      <c r="E188">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <v>128</v>
+      </c>
+      <c r="C189">
+        <v>128</v>
+      </c>
+      <c r="D189">
+        <v>13359</v>
+      </c>
+      <c r="E189">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <v>128</v>
+      </c>
+      <c r="C190">
+        <v>128</v>
+      </c>
+      <c r="D190">
+        <v>13578</v>
+      </c>
+      <c r="E190">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191">
+        <v>128</v>
+      </c>
+      <c r="C191">
+        <v>128</v>
+      </c>
+      <c r="D191">
+        <v>13007</v>
+      </c>
+      <c r="E191">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <v>128</v>
+      </c>
+      <c r="C192">
+        <v>128</v>
+      </c>
+      <c r="D192">
+        <v>13562</v>
+      </c>
+      <c r="E192">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>128</v>
+      </c>
+      <c r="C193">
+        <v>128</v>
+      </c>
+      <c r="D193">
+        <v>13498</v>
+      </c>
+      <c r="E193">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <v>128</v>
+      </c>
+      <c r="C194">
+        <v>128</v>
+      </c>
+      <c r="D194">
+        <v>13424</v>
+      </c>
+      <c r="E194">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195">
+        <v>128</v>
+      </c>
+      <c r="C195">
+        <v>128</v>
+      </c>
+      <c r="D195">
+        <v>13570</v>
+      </c>
+      <c r="E195">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196">
+        <v>128</v>
+      </c>
+      <c r="C196">
+        <v>128</v>
+      </c>
+      <c r="D196">
+        <v>13552</v>
+      </c>
+      <c r="E196">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>128</v>
+      </c>
+      <c r="C197">
+        <v>128</v>
+      </c>
+      <c r="D197">
+        <v>13548</v>
+      </c>
+      <c r="E197">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>128</v>
+      </c>
+      <c r="C198">
+        <v>128</v>
+      </c>
+      <c r="D198">
+        <v>12925</v>
+      </c>
+      <c r="E198">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>128</v>
+      </c>
+      <c r="C199">
+        <v>128</v>
+      </c>
+      <c r="D199">
+        <v>13462</v>
+      </c>
+      <c r="E199">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>128</v>
+      </c>
+      <c r="C200">
+        <v>128</v>
+      </c>
+      <c r="D200">
+        <v>13410</v>
+      </c>
+      <c r="E200">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201">
+        <v>128</v>
+      </c>
+      <c r="C201">
+        <v>128</v>
+      </c>
+      <c r="D201">
+        <v>13627</v>
+      </c>
+      <c r="E201">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>128</v>
+      </c>
+      <c r="C202">
+        <v>128</v>
+      </c>
+      <c r="D202">
+        <v>13629</v>
+      </c>
+      <c r="E202">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>128</v>
+      </c>
+      <c r="C203">
+        <v>128</v>
+      </c>
+      <c r="D203">
+        <v>13584</v>
+      </c>
+      <c r="E203">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>128</v>
+      </c>
+      <c r="C204">
+        <v>128</v>
+      </c>
+      <c r="D204">
+        <v>13468</v>
+      </c>
+      <c r="E204">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>128</v>
+      </c>
+      <c r="C205">
+        <v>128</v>
+      </c>
+      <c r="D205">
+        <v>13556</v>
+      </c>
+      <c r="E205">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>128</v>
+      </c>
+      <c r="C206">
+        <v>128</v>
+      </c>
+      <c r="D206">
+        <v>13566</v>
+      </c>
+      <c r="E206">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>128</v>
+      </c>
+      <c r="C207">
+        <v>128</v>
+      </c>
+      <c r="D207">
+        <v>13193</v>
+      </c>
+      <c r="E207">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>128</v>
+      </c>
+      <c r="C208">
+        <v>128</v>
+      </c>
+      <c r="D208">
+        <v>13588</v>
+      </c>
+      <c r="E208">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <v>128</v>
+      </c>
+      <c r="C209">
+        <v>128</v>
+      </c>
+      <c r="D209">
+        <v>13424</v>
+      </c>
+      <c r="E209">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>128</v>
+      </c>
+      <c r="C210">
+        <v>128</v>
+      </c>
+      <c r="D210">
+        <v>13578</v>
+      </c>
+      <c r="E210">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <v>128</v>
+      </c>
+      <c r="C211">
+        <v>128</v>
+      </c>
+      <c r="D211">
+        <v>13471</v>
+      </c>
+      <c r="E211">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212">
+        <v>128</v>
+      </c>
+      <c r="C212">
+        <v>128</v>
+      </c>
+      <c r="D212">
+        <v>13588</v>
+      </c>
+      <c r="E212">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213">
+        <v>128</v>
+      </c>
+      <c r="C213">
+        <v>128</v>
+      </c>
+      <c r="D213">
+        <v>13625</v>
+      </c>
+      <c r="E213">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214">
+        <v>128</v>
+      </c>
+      <c r="C214">
+        <v>128</v>
+      </c>
+      <c r="D214">
+        <v>13489</v>
+      </c>
+      <c r="E214">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <v>128</v>
+      </c>
+      <c r="C215">
+        <v>128</v>
+      </c>
+      <c r="D215">
+        <v>13459</v>
+      </c>
+      <c r="E215">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216">
+        <v>128</v>
+      </c>
+      <c r="C216">
+        <v>128</v>
+      </c>
+      <c r="D216">
+        <v>13378</v>
+      </c>
+      <c r="E216">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217">
+        <v>128</v>
+      </c>
+      <c r="C217">
+        <v>128</v>
+      </c>
+      <c r="D217">
+        <v>13355</v>
+      </c>
+      <c r="E217">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>128</v>
+      </c>
+      <c r="C218">
+        <v>128</v>
+      </c>
+      <c r="D218">
+        <v>13552</v>
+      </c>
+      <c r="E218">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>128</v>
+      </c>
+      <c r="C219">
+        <v>128</v>
+      </c>
+      <c r="D219">
+        <v>12936</v>
+      </c>
+      <c r="E219">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220">
+        <v>128</v>
+      </c>
+      <c r="C220">
+        <v>128</v>
+      </c>
+      <c r="D220">
+        <v>13497</v>
+      </c>
+      <c r="E220">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>128</v>
+      </c>
+      <c r="C221">
+        <v>128</v>
+      </c>
+      <c r="D221">
+        <v>13591</v>
+      </c>
+      <c r="E221">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <v>128</v>
+      </c>
+      <c r="C222">
+        <v>128</v>
+      </c>
+      <c r="D222">
+        <v>13575</v>
+      </c>
+      <c r="E222">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223">
+        <v>128</v>
+      </c>
+      <c r="C223">
+        <v>128</v>
+      </c>
+      <c r="D223">
+        <v>13395</v>
+      </c>
+      <c r="E223">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>128</v>
+      </c>
+      <c r="C224">
+        <v>128</v>
+      </c>
+      <c r="D224">
+        <v>13583</v>
+      </c>
+      <c r="E224">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>128</v>
+      </c>
+      <c r="C225">
+        <v>128</v>
+      </c>
+      <c r="D225">
+        <v>13572</v>
+      </c>
+      <c r="E225">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226">
+        <v>128</v>
+      </c>
+      <c r="C226">
+        <v>128</v>
+      </c>
+      <c r="D226">
+        <v>13582</v>
+      </c>
+      <c r="E226">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>128</v>
+      </c>
+      <c r="C227">
+        <v>128</v>
+      </c>
+      <c r="D227">
+        <v>13579</v>
+      </c>
+      <c r="E227">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228">
+        <v>128</v>
+      </c>
+      <c r="C228">
+        <v>128</v>
+      </c>
+      <c r="D228">
+        <v>13339</v>
+      </c>
+      <c r="E228">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229">
+        <v>128</v>
+      </c>
+      <c r="C229">
+        <v>128</v>
+      </c>
+      <c r="D229">
+        <v>13581</v>
+      </c>
+      <c r="E229">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>128</v>
+      </c>
+      <c r="C230">
+        <v>128</v>
+      </c>
+      <c r="D230">
+        <v>13513</v>
+      </c>
+      <c r="E230">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>128</v>
+      </c>
+      <c r="C231">
+        <v>128</v>
+      </c>
+      <c r="D231">
+        <v>13584</v>
+      </c>
+      <c r="E231">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232">
+        <v>128</v>
+      </c>
+      <c r="C232">
+        <v>128</v>
+      </c>
+      <c r="D232">
+        <v>13557</v>
+      </c>
+      <c r="E232">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233">
+        <v>128</v>
+      </c>
+      <c r="C233">
+        <v>128</v>
+      </c>
+      <c r="D233">
+        <v>13475</v>
+      </c>
+      <c r="E233">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234">
+        <v>128</v>
+      </c>
+      <c r="C234">
+        <v>128</v>
+      </c>
+      <c r="D234">
+        <v>13555</v>
+      </c>
+      <c r="E234">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>128</v>
+      </c>
+      <c r="C235">
+        <v>128</v>
+      </c>
+      <c r="D235">
+        <v>13579</v>
+      </c>
+      <c r="E235">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>128</v>
+      </c>
+      <c r="C236">
+        <v>128</v>
+      </c>
+      <c r="D236">
+        <v>13555</v>
+      </c>
+      <c r="E236">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237">
+        <v>128</v>
+      </c>
+      <c r="C237">
+        <v>128</v>
+      </c>
+      <c r="D237">
+        <v>13466</v>
+      </c>
+      <c r="E237">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>128</v>
+      </c>
+      <c r="C238">
+        <v>128</v>
+      </c>
+      <c r="D238">
+        <v>13103</v>
+      </c>
+      <c r="E238">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>128</v>
+      </c>
+      <c r="C239">
+        <v>128</v>
+      </c>
+      <c r="D239">
+        <v>13179</v>
+      </c>
+      <c r="E239">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240">
+        <v>128</v>
+      </c>
+      <c r="C240">
+        <v>128</v>
+      </c>
+      <c r="D240">
+        <v>13559</v>
+      </c>
+      <c r="E240">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>128</v>
+      </c>
+      <c r="C241">
+        <v>128</v>
+      </c>
+      <c r="D241">
+        <v>13588</v>
+      </c>
+      <c r="E241">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242">
+        <v>128</v>
+      </c>
+      <c r="C242">
+        <v>128</v>
+      </c>
+      <c r="D242">
+        <v>13560</v>
+      </c>
+      <c r="E242">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243">
+        <v>128</v>
+      </c>
+      <c r="C243">
+        <v>128</v>
+      </c>
+      <c r="D243">
+        <v>13406</v>
+      </c>
+      <c r="E243">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244">
+        <v>128</v>
+      </c>
+      <c r="C244">
+        <v>128</v>
+      </c>
+      <c r="D244">
+        <v>13573</v>
+      </c>
+      <c r="E244">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245">
+        <v>128</v>
+      </c>
+      <c r="C245">
+        <v>128</v>
+      </c>
+      <c r="D245">
+        <v>13629</v>
+      </c>
+      <c r="E245">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246">
+        <v>128</v>
+      </c>
+      <c r="C246">
+        <v>128</v>
+      </c>
+      <c r="D246">
+        <v>13419</v>
+      </c>
+      <c r="E246">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247">
+        <v>128</v>
+      </c>
+      <c r="C247">
+        <v>128</v>
+      </c>
+      <c r="D247">
+        <v>13634</v>
+      </c>
+      <c r="E247">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248">
+        <v>128</v>
+      </c>
+      <c r="C248">
+        <v>128</v>
+      </c>
+      <c r="D248">
+        <v>12916</v>
+      </c>
+      <c r="E248">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249">
+        <v>128</v>
+      </c>
+      <c r="C249">
+        <v>128</v>
+      </c>
+      <c r="D249">
+        <v>13497</v>
+      </c>
+      <c r="E249">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250">
+        <v>128</v>
+      </c>
+      <c r="C250">
+        <v>128</v>
+      </c>
+      <c r="D250">
+        <v>13572</v>
+      </c>
+      <c r="E250">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>128</v>
+      </c>
+      <c r="C251">
+        <v>128</v>
+      </c>
+      <c r="D251">
+        <v>13588</v>
+      </c>
+      <c r="E251">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>128</v>
+      </c>
+      <c r="C252">
+        <v>128</v>
+      </c>
+      <c r="D252">
+        <v>13430</v>
+      </c>
+      <c r="E252">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253">
+        <v>128</v>
+      </c>
+      <c r="C253">
+        <v>128</v>
+      </c>
+      <c r="D253">
+        <v>13622</v>
+      </c>
+      <c r="E253">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>128</v>
+      </c>
+      <c r="C254">
+        <v>128</v>
+      </c>
+      <c r="D254">
+        <v>13416</v>
+      </c>
+      <c r="E254">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <v>128</v>
+      </c>
+      <c r="C255">
+        <v>128</v>
+      </c>
+      <c r="D255">
+        <v>13417</v>
+      </c>
+      <c r="E255">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>128</v>
+      </c>
+      <c r="C256">
+        <v>128</v>
+      </c>
+      <c r="D256">
+        <v>13566</v>
+      </c>
+      <c r="E256">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>128</v>
+      </c>
+      <c r="C257">
+        <v>128</v>
+      </c>
+      <c r="D257">
+        <v>13365</v>
+      </c>
+      <c r="E257">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>128</v>
+      </c>
+      <c r="C258">
+        <v>128</v>
+      </c>
+      <c r="D258">
+        <v>13446</v>
+      </c>
+      <c r="E258">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259">
+        <v>128</v>
+      </c>
+      <c r="C259">
+        <v>128</v>
+      </c>
+      <c r="D259">
+        <v>13280</v>
+      </c>
+      <c r="E259">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>128</v>
+      </c>
+      <c r="C260">
+        <v>128</v>
+      </c>
+      <c r="D260">
+        <v>13572</v>
+      </c>
+      <c r="E260">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261">
+        <v>128</v>
+      </c>
+      <c r="C261">
+        <v>128</v>
+      </c>
+      <c r="D261">
+        <v>13551</v>
+      </c>
+      <c r="E261">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>128</v>
+      </c>
+      <c r="C262">
+        <v>128</v>
+      </c>
+      <c r="D262">
+        <v>13585</v>
+      </c>
+      <c r="E262">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>128</v>
+      </c>
+      <c r="C263">
+        <v>128</v>
+      </c>
+      <c r="D263">
+        <v>13026</v>
+      </c>
+      <c r="E263">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>128</v>
+      </c>
+      <c r="C264">
+        <v>128</v>
+      </c>
+      <c r="D264">
+        <v>13472</v>
+      </c>
+      <c r="E264">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>128</v>
+      </c>
+      <c r="C265">
+        <v>128</v>
+      </c>
+      <c r="D265">
+        <v>13603</v>
+      </c>
+      <c r="E265">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <v>128</v>
+      </c>
+      <c r="C266">
+        <v>128</v>
+      </c>
+      <c r="D266">
+        <v>13469</v>
+      </c>
+      <c r="E266">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>128</v>
+      </c>
+      <c r="C267">
+        <v>128</v>
+      </c>
+      <c r="D267">
+        <v>13625</v>
+      </c>
+      <c r="E267">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>128</v>
+      </c>
+      <c r="C268">
+        <v>128</v>
+      </c>
+      <c r="D268">
+        <v>13589</v>
+      </c>
+      <c r="E268">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>128</v>
+      </c>
+      <c r="C269">
+        <v>128</v>
+      </c>
+      <c r="D269">
+        <v>13535</v>
+      </c>
+      <c r="E269">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>128</v>
+      </c>
+      <c r="C270">
+        <v>128</v>
+      </c>
+      <c r="D270">
+        <v>13587</v>
+      </c>
+      <c r="E270">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>128</v>
+      </c>
+      <c r="C271">
+        <v>128</v>
+      </c>
+      <c r="D271">
+        <v>13405</v>
+      </c>
+      <c r="E271">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272">
+        <v>128</v>
+      </c>
+      <c r="C272">
+        <v>128</v>
+      </c>
+      <c r="D272">
+        <v>12901</v>
+      </c>
+      <c r="E272">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273">
+        <v>128</v>
+      </c>
+      <c r="C273">
+        <v>128</v>
+      </c>
+      <c r="D273">
+        <v>13494</v>
+      </c>
+      <c r="E273">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>128</v>
+      </c>
+      <c r="C274">
+        <v>128</v>
+      </c>
+      <c r="D274">
+        <v>13530</v>
+      </c>
+      <c r="E274">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275">
+        <v>128</v>
+      </c>
+      <c r="C275">
+        <v>128</v>
+      </c>
+      <c r="D275">
+        <v>13220</v>
+      </c>
+      <c r="E275">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>128</v>
+      </c>
+      <c r="C276">
+        <v>128</v>
+      </c>
+      <c r="D276">
+        <v>13436</v>
+      </c>
+      <c r="E276">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277">
+        <v>128</v>
+      </c>
+      <c r="C277">
+        <v>128</v>
+      </c>
+      <c r="D277">
+        <v>13576</v>
+      </c>
+      <c r="E277">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <v>128</v>
+      </c>
+      <c r="C278">
+        <v>128</v>
+      </c>
+      <c r="D278">
+        <v>13574</v>
+      </c>
+      <c r="E278">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -9199,4 +12120,1358 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>954.949452877</v>
+      </c>
+      <c r="G2">
+        <v>1904.65635991</v>
+      </c>
+      <c r="H2">
+        <v>1905.0930659799999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <f>G2-F2</f>
+        <v>949.70690703299999</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2756.7323818199998</v>
+      </c>
+      <c r="G3">
+        <v>3690.6159229300001</v>
+      </c>
+      <c r="H3">
+        <v>3691.0615439399999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="0">G3-F3</f>
+        <v>933.88354111000035</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>763.49348592800004</v>
+      </c>
+      <c r="G4">
+        <v>1723.08778095</v>
+      </c>
+      <c r="H4">
+        <v>1723.5316910700001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>959.59429502199998</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>949.70690703299999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>926.05387902300004</v>
+      </c>
+      <c r="G5">
+        <v>1960.3043100800001</v>
+      </c>
+      <c r="H5">
+        <v>1960.7434251300001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1034.250431057</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>946.73891806600022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3333.1491689700001</v>
+      </c>
+      <c r="G6">
+        <v>4343.1737480199999</v>
+      </c>
+      <c r="H6">
+        <v>4343.7153339400002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1010.0245790499998</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1022.1375050534999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>37.059126853899997</v>
+      </c>
+      <c r="G7">
+        <v>1116.8879890400001</v>
+      </c>
+      <c r="H7">
+        <v>1117.33498502</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1079.8288621861002</v>
+      </c>
+      <c r="M7" s="6">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1109.0968180468667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>57.486021995500003</v>
+      </c>
+      <c r="G8">
+        <v>1199.46437597</v>
+      </c>
+      <c r="H8">
+        <v>1200.04477</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1141.9783539744999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1470.1663193713332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2489.0308990499998</v>
+      </c>
+      <c r="G9">
+        <v>3594.5141370299998</v>
+      </c>
+      <c r="H9">
+        <v>3595.0533909800001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1105.48323798</v>
+      </c>
+      <c r="M9" s="6">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2487.378275316667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>215.984438896</v>
+      </c>
+      <c r="G10">
+        <v>1851.46343207</v>
+      </c>
+      <c r="H10">
+        <v>1851.9019539400001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1635.4789931739999</v>
+      </c>
+      <c r="M10" s="6">
+        <v>128</v>
+      </c>
+      <c r="N10" s="5">
+        <v>14564.509658999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1587.50521493</v>
+      </c>
+      <c r="G11">
+        <v>2996.0286328799998</v>
+      </c>
+      <c r="H11">
+        <v>2996.4767038800001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1408.5234179499998</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2310.1262433651063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1925.84539294</v>
+      </c>
+      <c r="G12">
+        <v>3292.3419399300001</v>
+      </c>
+      <c r="H12">
+        <v>3292.7900688599998</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1366.4965469900001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>1001.75782609</v>
+      </c>
+      <c r="G13">
+        <v>4281.8598151200003</v>
+      </c>
+      <c r="H13">
+        <v>4282.3115339300002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>3280.1019890300004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>1210.1403880099999</v>
+      </c>
+      <c r="G14">
+        <v>3310.2213969200002</v>
+      </c>
+      <c r="H14">
+        <v>3310.6605689500002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2100.0810089100005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>2226.8310780500001</v>
+      </c>
+      <c r="G15">
+        <v>4308.7829060599997</v>
+      </c>
+      <c r="H15">
+        <v>4309.21431708</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2081.9518280099996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" customHeight="1">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>22768.135295200002</v>
+      </c>
+      <c r="G16">
+        <v>37332.644954199997</v>
+      </c>
+      <c r="H16">
+        <v>37333.205501999997</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>14564.509658999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>392.29308795899999</v>
+      </c>
+      <c r="G2">
+        <v>1248.8864119100001</v>
+      </c>
+      <c r="H2">
+        <v>1251.0189650100001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>208.94590902300001</v>
+      </c>
+      <c r="L2">
+        <v>19.812896966899999</v>
+      </c>
+      <c r="M2">
+        <f>G2-F2</f>
+        <v>856.59332395100012</v>
+      </c>
+      <c r="N2">
+        <f>K2+L2*E2</f>
+        <v>228.7588059899</v>
+      </c>
+      <c r="O2">
+        <f>N2+M2</f>
+        <v>1085.3521299409001</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1758.32392383</v>
+      </c>
+      <c r="G3">
+        <v>2577.2981979800002</v>
+      </c>
+      <c r="H3">
+        <v>2579.3222539399999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>205.12900877000001</v>
+      </c>
+      <c r="L3">
+        <v>19.426205158199998</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M7" si="0">G3-F3</f>
+        <v>818.97427415000016</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="1">K3+L3*E3</f>
+        <v>224.5552139282</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="2">N3+M3</f>
+        <v>1043.5294880782001</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2711.5011251000001</v>
+      </c>
+      <c r="G4">
+        <v>3575.2306690199998</v>
+      </c>
+      <c r="H4">
+        <v>3577.3629119399998</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>247.03961205499999</v>
+      </c>
+      <c r="L4">
+        <v>19.903964996300001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>863.72954391999974</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>266.9435770513</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1130.6731209712998</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>240.08586565646669</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1086.5182463301333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>3344.0852730299998</v>
+      </c>
+      <c r="G5">
+        <v>4785.4405469900003</v>
+      </c>
+      <c r="H5">
+        <v>4787.5795450200003</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>235.05078005799999</v>
+      </c>
+      <c r="L5">
+        <v>20.932042064099999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1441.3552739600004</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>2914.3521642627998</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>4355.7074382228002</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>128</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2899.2879715763333</v>
+      </c>
+      <c r="S5" s="5">
+        <v>4142.5110405296664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>6588.2692558799999</v>
+      </c>
+      <c r="G6">
+        <v>8013.6574549699999</v>
+      </c>
+      <c r="H6">
+        <v>8015.7853438900001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>205.92547678899999</v>
+      </c>
+      <c r="L6">
+        <v>20.196571795299999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1425.3881990899999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>2791.0866665874</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>4216.4748656774</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1569.6869186164001</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2614.5146434298999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>3045.9475521999998</v>
+      </c>
+      <c r="G7">
+        <v>3908.8732860099999</v>
+      </c>
+      <c r="H7">
+        <v>3911.3552231799999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>207.23123407400001</v>
+      </c>
+      <c r="L7">
+        <v>21.759326951599999</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>862.92573381000011</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>2992.4250838787998</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>3855.3508176887999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>7925.22349906</v>
+      </c>
+      <c r="G2">
+        <v>8789.3096618700001</v>
+      </c>
+      <c r="H2">
+        <v>8791.9559440600005</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>159.65850997000001</v>
+      </c>
+      <c r="L2">
+        <v>15.297445058799999</v>
+      </c>
+      <c r="M2">
+        <f>G2-F2</f>
+        <v>864.08616281000013</v>
+      </c>
+      <c r="N2">
+        <f>K2+L2*E2</f>
+        <v>174.95595502880002</v>
+      </c>
+      <c r="O2">
+        <f>N2+M2</f>
+        <v>1039.0421178388001</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>174.95595502880002</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1039.0421178388001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="Q5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="5">
+        <v>174.95595502880002</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1039.0421178388001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="9">
+        <f>Trestles!$I$9/60</f>
+        <v>224.44809027777777</v>
+      </c>
+      <c r="C4" s="12">
+        <f>'BJ (Plain)'!N10/60</f>
+        <v>242.74182764999992</v>
+      </c>
+      <c r="D4" s="8">
+        <f>C4-B4</f>
+        <v>18.293737372222154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8">
+        <f>'BJ (PD-SSH)'!R5/60</f>
+        <v>48.321466192938892</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'BJ (PD-SSH)'!S5/60</f>
+        <v>69.041850675494445</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
+        <v>20.720384482555552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8">
+        <f>'BJ (PD-GO)'!R4/60</f>
+        <v>2.9159325838133339</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'BJ (PD-GO)'!S4/60</f>
+        <v>17.317368630646669</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>14.401436046833336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
+++ b/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Trestles" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="tmp" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="bj_pd_go_singleresource" localSheetId="4">'BJ (PD-GO)'!$A$1:$L$2</definedName>
+    <definedName name="bj_pd_go_singleresource" localSheetId="4">'BJ (PD-GO)'!$A$1:$L$1</definedName>
     <definedName name="bj_pd_go_singleresource" localSheetId="7">tmp!$A$1:$L$6</definedName>
+    <definedName name="bj_pd_go_singleresource_1" localSheetId="4">'BJ (PD-GO)'!$A$2:$L$4</definedName>
     <definedName name="bj_pd_singleresource" localSheetId="3">'BJ (PD-SSH)'!$A$1:$L$7</definedName>
     <definedName name="bj_pd_singleresource_1" localSheetId="3">'BJ (PD-SSH)'!$A$11:$L$21</definedName>
     <definedName name="bj_singleresource" localSheetId="2">'BJ (Plain)'!$A$1:$J$16</definedName>
@@ -28,10 +29,10 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="7" r:id="rId10"/>
-    <pivotCache cacheId="18" r:id="rId11"/>
-    <pivotCache cacheId="36" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -79,7 +80,25 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="bj-pd-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="bj-pd-go-singleresource.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-pd-go-singleresource.txt" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="bj-pd-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-pd-singleresource.txt" comma="1">
       <textFields count="12">
         <textField/>
@@ -97,7 +116,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="bj-pd-singleresource.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="bj-pd-singleresource.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-pd-singleresource.txt" comma="1">
       <textFields count="12">
         <textField/>
@@ -115,7 +134,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="bj-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="bj-singleresource.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-singleresource.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -131,7 +150,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="bj-singleresource.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="bj-singleresource.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-singleresource.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -147,7 +166,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="bj-singleresource.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="bj-singleresource.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-singleresource.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -163,7 +182,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="bj-singleresource.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="bj-singleresource.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="MacSSD:Users:luckow:Dropbox:SAGA:papers:troy:pstar:perf:sc:bj-singleresource.txt" comma="1">
       <textFields count="10">
         <textField/>
@@ -359,26 +378,7 @@
     <t>Total Runtimes for 128 Cus (in min)</t>
   </si>
   <si>
-    <t>bigjob:bj-ee33f8e0-921b-11e1-bc46-00259009e720:trestles.sdsc.edu</t>
-  </si>
-  <si>
-    <t>No PD</t>
-  </si>
-  <si>
-    <t>PD (SSH)</t>
-  </si>
-  <si>
     <t>Compute</t>
-  </si>
-  <si>
-    <t>PD 
-(Globus Online)</t>
-  </si>
-  <si>
-    <t>bigjob:bj-d125fade-92dc-11e1-bc60-00259009e720:trestles.sdsc.edu</t>
-  </si>
-  <si>
-    <t>bigjob:bj-9cf1e8b0-9311-11e1-bc60-00259009e720:trestles.sdsc.edu</t>
   </si>
   <si>
     <t>STABW - Staging</t>
@@ -417,7 +417,29 @@
     <t>pbs-ssh://pmantha@trestles.sdsc.edu</t>
   </si>
   <si>
-    <t>EGI (SRM)</t>
+    <t>bigjob:bj-dd90c2b4-9416-11e1-989a-00259009e720:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-889d18c2-9428-11e1-989a-00259009e720:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>bigjob:bj-7f226ba0-9430-11e1-989a-00259009e720:trestles.sdsc.edu</t>
+  </si>
+  <si>
+    <t>No PD
+(Trestles)</t>
+  </si>
+  <si>
+    <t>DIANE/SRM
+(EGI)</t>
+  </si>
+  <si>
+    <t>PD/SSH
+(Trestles)</t>
+  </si>
+  <si>
+    <t>PD/Globus Online
+(Trestles)</t>
   </si>
 </sst>
 </file>
@@ -939,11 +961,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2131684472"/>
-        <c:axId val="2131690680"/>
+        <c:axId val="2084439064"/>
+        <c:axId val="2085367912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131684472"/>
+        <c:axId val="2084439064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1004,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1002,7 +1023,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131690680"/>
+        <c:crossAx val="2085367912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131690680"/>
+        <c:axId val="2085367912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -1058,14 +1078,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131684472"/>
+        <c:crossAx val="2084439064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1148,16 +1167,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>No PD</c:v>
+                  <c:v>No PD_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PD (SSH)</c:v>
+                  <c:v>PD/SSH_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PD _x000d_(Globus Online)</c:v>
+                  <c:v>PD/Globus Online_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EGI (SRM)</c:v>
+                  <c:v>DIANE/SRM_x000d_(EGI)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,7 +1194,7 @@
                   <c:v>49.08365714551223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.42358664010777</c:v>
+                  <c:v>34.36352397203778</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.196921158333333</c:v>
@@ -1223,7 +1242,7 @@
                     <c:v>5.095156348019516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>25.33236594315003</c:v>
+                    <c:v>21.88203898764747</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.079859904444445</c:v>
@@ -1244,7 +1263,7 @@
                     <c:v>5.095156348019516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>25.33236594315003</c:v>
+                    <c:v>21.88203898764747</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.079859904444445</c:v>
@@ -1259,16 +1278,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>No PD</c:v>
+                  <c:v>No PD_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PD (SSH)</c:v>
+                  <c:v>PD/SSH_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PD _x000d_(Globus Online)</c:v>
+                  <c:v>PD/Globus Online_x000d_(Trestles)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EGI (SRM)</c:v>
+                  <c:v>DIANE/SRM_x000d_(EGI)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1286,7 +1305,7 @@
                   <c:v>20.47924295277776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.39312179994445</c:v>
+                  <c:v>29.24849434027777</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.59591256055555</c:v>
@@ -1305,11 +1324,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2132351704"/>
-        <c:axId val="2132354680"/>
+        <c:axId val="2084491240"/>
+        <c:axId val="2084494216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132351704"/>
+        <c:axId val="2084491240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1342,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1">
+              <a:defRPr sz="1400" b="1">
                 <a:latin typeface="Times"/>
                 <a:cs typeface="Times"/>
               </a:defRPr>
@@ -1331,7 +1350,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132354680"/>
+        <c:crossAx val="2084494216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1339,7 +1358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132354680"/>
+        <c:axId val="2084494216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1424,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132351704"/>
+        <c:crossAx val="2084491240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1516,69 +1535,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41030.41517349537" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O4" sheet="BJ (PD-GO)"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Run" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
-    </cacheField>
-    <cacheField name="BJ" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="#Nodes" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="128"/>
-    </cacheField>
-    <cacheField name="#cores/node" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
-    </cacheField>
-    <cacheField name="#jobs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="128" count="2">
-        <n v="1"/>
-        <n v="128"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Queuing Time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2901.2768919499999" maxValue="9594.7252669299996"/>
-    </cacheField>
-    <cacheField name="BJ Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6178.76268411" maxValue="15777.2425439"/>
-    </cacheField>
-    <cacheField name="Total Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6181.0479130699996" maxValue="15779.553938900001"/>
-    </cacheField>
-    <cacheField name="Coordination URL" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="LRMS URL" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="BJ Staging" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="159.65850997000001" maxValue="566.05683207499999"/>
-    </cacheField>
-    <cacheField name="SJ Staging" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.297445058799999" maxValue="22.880027655500001"/>
-    </cacheField>
-    <cacheField name="Net Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="864.08616281000013" maxValue="6182.5172769700002"/>
-    </cacheField>
-    <cacheField name="Staging" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="174.95595502880002" maxValue="3126.8577821240001"/>
-    </cacheField>
-    <cacheField name="Runtime + Staging" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1039.0421178388001" maxValue="9077.5788712209996"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41030.884907291664" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="9">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O10" sheet="BJ (PD-SSH)"/>
@@ -1641,7 +1597,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41030.892883449073" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="16">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K17" sheet="BJ (Plain)"/>
@@ -1697,7 +1653,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41030.914643750002" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="531">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:E533" sheet="Trestles"/>
@@ -1734,80 +1690,69 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="4">
-  <r>
-    <n v="0"/>
-    <s v="bigjob:bj-ee33f8e0-921b-11e1-bc46-00259009e720:trestles.sdsc.edu"/>
-    <n v="16"/>
-    <n v="16"/>
-    <x v="0"/>
-    <n v="7925.22349906"/>
-    <n v="8789.3096618700001"/>
-    <n v="8791.9559440600005"/>
-    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
-    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
-    <n v="159.65850997000001"/>
-    <n v="15.297445058799999"/>
-    <n v="864.08616281000013"/>
-    <n v="174.95595502880002"/>
-    <n v="1039.0421178388001"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <s v="bigjob:bj-d125fade-92dc-11e1-bc60-00259009e720:trestles.sdsc.edu"/>
-    <n v="128"/>
-    <n v="16"/>
-    <x v="1"/>
-    <n v="2901.2768919499999"/>
-    <n v="6889.2260069800004"/>
-    <n v="6891.6345160000001"/>
-    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
-    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
-    <n v="190.74245381399999"/>
-    <n v="20.965498164300001"/>
-    <n v="3987.9491150300005"/>
-    <n v="2874.3262188444"/>
-    <n v="6862.2753338744005"/>
-  </r>
-  <r>
-    <n v="1"/>
-    <s v="bigjob:bj-dd9195d4-92ec-11e1-bc60-00259009e720:trestles.sdsc.edu"/>
-    <n v="128"/>
-    <n v="16"/>
-    <x v="1"/>
-    <n v="9594.7252669299996"/>
-    <n v="15777.2425439"/>
-    <n v="15779.553938900001"/>
-    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
-    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
-    <n v="566.05683207499999"/>
-    <n v="18.1953497045"/>
-    <n v="6182.5172769700002"/>
-    <n v="2895.0615942509999"/>
-    <n v="9077.5788712209996"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="bigjob:bj-9cf1e8b0-9311-11e1-bc60-00259009e720:trestles.sdsc.edu"/>
-    <n v="128"/>
-    <n v="16"/>
-    <x v="1"/>
-    <n v="3138.4671521199998"/>
-    <n v="6178.76268411"/>
-    <n v="6181.0479130699996"/>
-    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
-    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
-    <n v="198.21424221999999"/>
-    <n v="22.880027655500001"/>
-    <n v="3040.2955319900002"/>
-    <n v="3126.8577821240001"/>
-    <n v="6167.1533141140008"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41031.785144328707" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O4" sheet="BJ (PD-GO)"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Run" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="BJ" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="#Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="256" maxValue="256"/>
+    </cacheField>
+    <cacheField name="#cores/node" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="16" maxValue="16"/>
+    </cacheField>
+    <cacheField name="#jobs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="128" maxValue="128" count="1">
+        <n v="128"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Queuing Time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1933.03455687" maxValue="4628.6151609400004"/>
+    </cacheField>
+    <cacheField name="BJ Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2768.6149609099998" maxValue="7583.1670470199997"/>
+    </cacheField>
+    <cacheField name="Total Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2770.90165591" maxValue="7585.4565029100004"/>
+    </cacheField>
+    <cacheField name="Coordination URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LRMS URL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="151.29115390800001" maxValue="164.674059868"/>
+    </cacheField>
+    <cacheField name="SJ Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.8371118531" maxValue="16.926529794899999"/>
+    </cacheField>
+    <cacheField name="Net Runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="835.58040403999985" maxValue="2954.5518860799993"/>
+    </cacheField>
+    <cacheField name="Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1922.4414711048" maxValue="2331.2698736151997"/>
+    </cacheField>
+    <cacheField name="Runtime + Staging" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2758.0218751448001" maxValue="5285.821759695199"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="9">
   <r>
     <n v="0"/>
@@ -1965,7 +1910,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
   <r>
     <n v="0"/>
@@ -2178,7 +2123,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="531">
   <r>
     <s v="Trestles"/>
@@ -5900,8 +5845,64 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+  <r>
+    <n v="0"/>
+    <s v="bigjob:bj-dd90c2b4-9416-11e1-989a-00259009e720:trestles.sdsc.edu"/>
+    <n v="256"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="4628.6151609400004"/>
+    <n v="7583.1670470199997"/>
+    <n v="7585.4565029100004"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="164.674059868"/>
+    <n v="16.926529794899999"/>
+    <n v="2954.5518860799993"/>
+    <n v="2331.2698736151997"/>
+    <n v="5285.821759695199"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="bigjob:bj-889d18c2-9428-11e1-989a-00259009e720:trestles.sdsc.edu"/>
+    <n v="256"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="1940.195467"/>
+    <n v="3414.7921581300002"/>
+    <n v="3417.0893640499999"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="153.33472204200001"/>
+    <n v="13.8936581891"/>
+    <n v="1474.5966911300002"/>
+    <n v="1931.7229702468001"/>
+    <n v="3406.3196613768005"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="bigjob:bj-7f226ba0-9430-11e1-989a-00259009e720:trestles.sdsc.edu"/>
+    <n v="256"/>
+    <n v="16"/>
+    <x v="0"/>
+    <n v="1933.03455687"/>
+    <n v="2768.6149609099998"/>
+    <n v="2770.90165591"/>
+    <s v="redis://ILikeBigJob_wITH-REdIS@gw68.quarry.iu.teragrid.org:6379"/>
+    <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
+    <n v="151.29115390800001"/>
+    <n v="13.8371118531"/>
+    <n v="835.58040403999985"/>
+    <n v="1922.4414711048"/>
+    <n v="2758.0218751448001"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H2:L10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6010,7 +6011,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="M2:O11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -6090,7 +6091,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="Q2:U6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6162,17 +6163,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="Q19:U23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="Q5:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="2">
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6190,12 +6190,9 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -6243,34 +6240,38 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_3" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_3" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_2" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_1" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_2" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource_1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -18637,7 +18638,7 @@
         <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -19185,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2">
         <v>128</v>
@@ -19221,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>128</v>
@@ -19245,7 +19246,7 @@
         <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -19455,10 +19456,10 @@
         <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -19711,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>128</v>
@@ -19761,7 +19762,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>128</v>
@@ -19811,7 +19812,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>128</v>
@@ -19869,26 +19870,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5" customWidth="1"/>
     <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -19896,7 +19896,7 @@
     <col min="21" max="21" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -19943,30 +19943,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F2">
-        <v>7925.22349906</v>
+        <v>4628.6151609400004</v>
       </c>
       <c r="G2">
-        <v>8789.3096618700001</v>
+        <v>7583.1670470199997</v>
       </c>
       <c r="H2">
-        <v>8791.9559440600005</v>
+        <v>7585.4565029100004</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -19975,33 +19975,33 @@
         <v>28</v>
       </c>
       <c r="K2">
-        <v>159.65850997000001</v>
+        <v>164.674059868</v>
       </c>
       <c r="L2">
-        <v>15.297445058799999</v>
+        <v>16.926529794899999</v>
       </c>
       <c r="M2">
-        <f>G2-F2</f>
-        <v>864.08616281000013</v>
+        <f t="shared" ref="M2:M4" si="0">G2-F2</f>
+        <v>2954.5518860799993</v>
       </c>
       <c r="N2">
-        <f>K2+L2*E2</f>
-        <v>174.95595502880002</v>
+        <f t="shared" ref="N2:N4" si="1">K2+L2*E2</f>
+        <v>2331.2698736151997</v>
       </c>
       <c r="O2">
-        <f>N2+M2</f>
-        <v>1039.0421178388001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <f t="shared" ref="O2:O4" si="2">N2+M2</f>
+        <v>5285.821759695199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -20010,13 +20010,13 @@
         <v>128</v>
       </c>
       <c r="F3">
-        <v>2901.2768919499999</v>
+        <v>1940.195467</v>
       </c>
       <c r="G3">
-        <v>6889.2260069800004</v>
+        <v>3414.7921581300002</v>
       </c>
       <c r="H3">
-        <v>6891.6345160000001</v>
+        <v>3417.0893640499999</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -20025,33 +20025,33 @@
         <v>28</v>
       </c>
       <c r="K3">
-        <v>190.74245381399999</v>
+        <v>153.33472204200001</v>
       </c>
       <c r="L3">
-        <v>20.965498164300001</v>
+        <v>13.8936581891</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" si="0">G3-F3</f>
-        <v>3987.9491150300005</v>
+        <f t="shared" si="0"/>
+        <v>1474.5966911300002</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N4" si="1">K3+L3*E3</f>
-        <v>2874.3262188444</v>
+        <f t="shared" si="1"/>
+        <v>1931.7229702468001</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O4" si="2">N3+M3</f>
-        <v>6862.2753338744005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f t="shared" si="2"/>
+        <v>3406.3196613768005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -20060,13 +20060,13 @@
         <v>128</v>
       </c>
       <c r="F4">
-        <v>3138.4671521199998</v>
+        <v>1933.03455687</v>
       </c>
       <c r="G4">
-        <v>6178.76268411</v>
+        <v>2768.6149609099998</v>
       </c>
       <c r="H4">
-        <v>6181.0479130699996</v>
+        <v>2770.90165591</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -20075,95 +20075,78 @@
         <v>28</v>
       </c>
       <c r="K4">
-        <v>198.21424221999999</v>
+        <v>151.29115390800001</v>
       </c>
       <c r="L4">
-        <v>22.880027655500001</v>
+        <v>13.8371118531</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>3040.2955319900002</v>
+        <v>835.58040403999985</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>3126.8577821240001</v>
+        <v>1922.4414711048</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>6167.1533141140008</v>
-      </c>
-    </row>
-    <row r="19" spans="17:21">
-      <c r="R19" s="4" t="s">
+        <v>2758.0218751448001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="R5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="17:21">
-      <c r="Q20" s="4" t="s">
+    <row r="6" spans="1:21">
+      <c r="Q6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R6" t="s">
         <v>56</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S6" t="s">
         <v>55</v>
       </c>
-      <c r="T20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="17:21">
-      <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="8">
-        <v>174.95595502880002</v>
-      </c>
-      <c r="S21" s="8">
-        <v>1039.0421178388001</v>
-      </c>
-      <c r="T21" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="17:21">
-      <c r="Q22" s="6">
-        <v>128</v>
-      </c>
-      <c r="R22" s="8">
-        <v>2965.4151984064665</v>
-      </c>
-      <c r="S22" s="8">
-        <v>7369.0025064031333</v>
-      </c>
-      <c r="T22" s="8">
-        <v>140.197253276803</v>
-      </c>
-      <c r="U22" s="8">
-        <v>1519.9419565890018</v>
-      </c>
-    </row>
-    <row r="23" spans="17:21">
-      <c r="Q23" s="6" t="s">
+      <c r="T6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="Q7" s="6">
+        <v>128</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2061.8114383222669</v>
+      </c>
+      <c r="S7" s="8">
+        <v>3816.7210987389335</v>
+      </c>
+      <c r="T7" s="8">
+        <v>233.40399058171062</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1312.9223392588483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="Q8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="5">
-        <v>2267.8003875620498</v>
-      </c>
-      <c r="S23" s="5">
-        <v>5786.5124092620499</v>
-      </c>
-      <c r="T23" s="5">
-        <v>1399.9175727361728</v>
-      </c>
-      <c r="U23" s="5">
-        <v>3399.5953677555217</v>
+      <c r="R8" s="5">
+        <v>2061.8114383222669</v>
+      </c>
+      <c r="S8" s="5">
+        <v>3816.7210987389335</v>
+      </c>
+      <c r="T8" s="5">
+        <v>233.40399058171062</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1312.9223392588483</v>
       </c>
     </row>
   </sheetData>
@@ -20189,16 +20172,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -20277,7 +20260,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20299,15 +20282,15 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="16">
         <f>Trestles!I9/60</f>
@@ -20326,9 +20309,9 @@
         <v>35.039715453947373</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="8">
         <f>'BJ (PD-SSH)'!R5/60</f>
@@ -20349,28 +20332,28 @@
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B6" s="8">
-        <f>'BJ (PD-GO)'!R22/60</f>
-        <v>49.423586640107779</v>
+        <f>'BJ (PD-GO)'!R7/60</f>
+        <v>34.363523972037783</v>
       </c>
       <c r="C6" s="8">
-        <f>'BJ (PD-GO)'!S22/60</f>
-        <v>122.81670844005222</v>
+        <f>'BJ (PD-GO)'!S7/60</f>
+        <v>63.612018312315556</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>73.393121799944453</v>
+        <v>29.248494340277773</v>
       </c>
       <c r="E6" s="8">
-        <f>'BJ (PD-GO)'!U22/60</f>
-        <v>25.33236594315003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>77</v>
+        <f>'BJ (PD-GO)'!U7/60</f>
+        <v>21.882038987647473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="8">
         <f>EGI_SRM!A8/60</f>

--- a/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
+++ b/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trestles" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
     <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="11" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1163,9 +1163,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Total!$A$4:$A$7</c:f>
+              <c:f>Total!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>No PD_x000d_(Trestles)</c:v>
                 </c:pt>
@@ -1175,18 +1175,15 @@
                 <c:pt idx="2">
                   <c:v>PD/Globus Online_x000d_(Trestles)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>DIANE/SRM_x000d_(EGI)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$B$4:$B$7</c:f>
+              <c:f>Total!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0">
                   <c:v>178.7429249762583</c:v>
                 </c:pt>
@@ -1195,9 +1192,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.36352397203778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.196921158333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,7 +1236,7 @@
                     <c:v>5.095156348019516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>21.88203898764747</c:v>
+                    <c:v>9.021936580237572</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.079859904444445</c:v>
@@ -1263,7 +1257,7 @@
                     <c:v>5.095156348019516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>21.88203898764747</c:v>
+                    <c:v>9.021936580237572</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.079859904444445</c:v>
@@ -1274,9 +1268,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Total!$A$4:$A$7</c:f>
+              <c:f>Total!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>No PD_x000d_(Trestles)</c:v>
                 </c:pt>
@@ -1286,18 +1280,15 @@
                 <c:pt idx="2">
                   <c:v>PD/Globus Online_x000d_(Trestles)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>DIANE/SRM_x000d_(EGI)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Total!$D$4:$D$7</c:f>
+              <c:f>Total!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>39.22208226540834</c:v>
                 </c:pt>
@@ -1305,10 +1296,7 @@
                   <c:v>20.47924295277776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.24849434027777</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.59591256055555</c:v>
+                  <c:v>12.83431719538888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +1679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41031.785144328707" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andre Luckow" refreshedDate="41031.875360532409" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O4" sheet="BJ (PD-GO)"/>
   </cacheSource>
@@ -1735,13 +1723,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.8371118531" maxValue="16.926529794899999"/>
     </cacheField>
     <cacheField name="Net Runtime" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="835.58040403999985" maxValue="2954.5518860799993"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="835.58040403999985" maxValue="1474.5966911300002"/>
     </cacheField>
     <cacheField name="Staging" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1922.4414711048" maxValue="2331.2698736151997"/>
     </cacheField>
     <cacheField name="Runtime + Staging" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2758.0218751448001" maxValue="5285.821759695199"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2331.2698736151997" maxValue="3406.3196613768005"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5860,9 +5848,9 @@
     <s v="pbs-ssh://luckow@trestles.sdsc.edu"/>
     <n v="164.674059868"/>
     <n v="16.926529794899999"/>
-    <n v="2954.5518860799993"/>
+    <m/>
     <n v="2331.2698736151997"/>
-    <n v="5285.821759695199"/>
+    <n v="2331.2698736151997"/>
   </r>
   <r>
     <n v="1"/>
@@ -6163,7 +6151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="Q5:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -19268,7 +19256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:U6"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="1" activeCol="16" click="1" r:id="rId1">
         <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
@@ -19872,8 +19860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19980,17 +19968,13 @@
       <c r="L2">
         <v>16.926529794899999</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M4" si="0">G2-F2</f>
-        <v>2954.5518860799993</v>
-      </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="1">K2+L2*E2</f>
+        <f t="shared" ref="N2:N4" si="0">K2+L2*E2</f>
         <v>2331.2698736151997</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O4" si="2">N2+M2</f>
-        <v>5285.821759695199</v>
+        <f t="shared" ref="O2:O4" si="1">N2+M2</f>
+        <v>2331.2698736151997</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -20031,15 +20015,15 @@
         <v>13.8936581891</v>
       </c>
       <c r="M3">
+        <f t="shared" ref="M2:M4" si="2">G3-F3</f>
+        <v>1474.5966911300002</v>
+      </c>
+      <c r="N3">
         <f t="shared" si="0"/>
-        <v>1474.5966911300002</v>
-      </c>
-      <c r="N3">
+        <v>1931.7229702468001</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="1"/>
-        <v>1931.7229702468001</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="2"/>
         <v>3406.3196613768005</v>
       </c>
     </row>
@@ -20081,15 +20065,15 @@
         <v>13.8371118531</v>
       </c>
       <c r="M4">
+        <f t="shared" si="2"/>
+        <v>835.58040403999985</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="0"/>
-        <v>835.58040403999985</v>
-      </c>
-      <c r="N4">
+        <v>1922.4414711048</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="1"/>
-        <v>1922.4414711048</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
         <v>2758.0218751448001</v>
       </c>
     </row>
@@ -20123,13 +20107,13 @@
         <v>2061.8114383222669</v>
       </c>
       <c r="S7" s="8">
-        <v>3816.7210987389335</v>
+        <v>2831.8704700456001</v>
       </c>
       <c r="T7" s="8">
         <v>233.40399058171062</v>
       </c>
       <c r="U7" s="8">
-        <v>1312.9223392588483</v>
+        <v>541.31619481425435</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -20140,13 +20124,13 @@
         <v>2061.8114383222669</v>
       </c>
       <c r="S8" s="5">
-        <v>3816.7210987389335</v>
+        <v>2831.8704700456001</v>
       </c>
       <c r="T8" s="5">
         <v>233.40399058171062</v>
       </c>
       <c r="U8" s="5">
-        <v>1312.9223392588483</v>
+        <v>541.31619481425435</v>
       </c>
     </row>
   </sheetData>
@@ -20259,8 +20243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20340,15 +20324,15 @@
       </c>
       <c r="C6" s="8">
         <f>'BJ (PD-GO)'!S7/60</f>
-        <v>63.612018312315556</v>
+        <v>47.197841167426667</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>29.248494340277773</v>
+        <v>12.834317195388884</v>
       </c>
       <c r="E6" s="8">
         <f>'BJ (PD-GO)'!U7/60</f>
-        <v>21.882038987647473</v>
+        <v>9.0219365802375719</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">

--- a/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
+++ b/papers/troy/pstar/perf/sc/pilot-data-exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="50380" windowHeight="28360" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Trestles" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="9" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId11"/>
     <pivotCache cacheId="11" r:id="rId12"/>
   </pivotCaches>
   <extLst>
@@ -961,11 +961,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2084439064"/>
-        <c:axId val="2085367912"/>
+        <c:axId val="2089312584"/>
+        <c:axId val="2089264472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2084439064"/>
+        <c:axId val="2089312584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1023,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085367912"/>
+        <c:crossAx val="2089264472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085367912"/>
+        <c:axId val="2089264472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084439064"/>
+        <c:crossAx val="2089312584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,11 +1312,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2084491240"/>
-        <c:axId val="2084494216"/>
+        <c:axId val="2089769128"/>
+        <c:axId val="2089772168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2084491240"/>
+        <c:axId val="2089769128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1338,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084494216"/>
+        <c:crossAx val="2089772168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1346,7 +1346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084494216"/>
+        <c:axId val="2089772168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1412,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084491240"/>
+        <c:crossAx val="2089769128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5890,7 +5890,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H2:L10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5999,7 +5999,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="M2:O11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -6079,7 +6079,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="Q2:U6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6232,7 +6232,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_2" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6240,23 +6240,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource_2" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-singleresource" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-singleresource_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource_1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bj-pd-go-singleresource_1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19256,11 +19256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:U6"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="1" activeCol="16" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20015,7 +20012,7 @@
         <v>13.8936581891</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M2:M4" si="2">G3-F3</f>
+        <f t="shared" ref="M3:M4" si="2">G3-F3</f>
         <v>1474.5966911300002</v>
       </c>
       <c r="N3">
@@ -20241,10 +20238,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20354,6 +20351,12 @@
       <c r="E7" s="15">
         <f>EGI_SRM!D8/60</f>
         <v>3.079859904444445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <f>34.4/0.491</f>
+        <v>70.061099796334005</v>
       </c>
     </row>
   </sheetData>
